--- a/cloveretl.examples/RealWorldExamples/data-in/others/10staxss_template.xlsx
+++ b/cloveretl.examples/RealWorldExamples/data-in/others/10staxss_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="141" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="141"/>
   </bookViews>
   <sheets>
-    <sheet name="Taxes" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Taxes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -56,57 +56,39 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <sz val="8"/>
     </font>
   </fonts>
   <fills count="3">
@@ -118,133 +100,406 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCFFFF"/>
-        <bgColor rgb="00CCFFFF"/>
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="2" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="2" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="topLeft" topLeftCell="A1" xSplit="0" ySplit="-1"/>
-      <selection activeCell="M8" activeCellId="0" pane="topLeft" sqref="M8"/>
-      <selection activeCell="A1" activeCellId="0" pane="bottomLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="1.05098039215686"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.8470588235294"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="1.05098039215686"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="11.8470588235294"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="1.05098039215686"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="11.8470588235294"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="1.05098039215686"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="11.8470588235294"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="1.05098039215686"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.8470588235294"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="1.05098039215686"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="11.8470588235294"/>
+    <col min="1" max="1" width="11.85546875"/>
+    <col min="2" max="2" width="1"/>
+    <col min="3" max="4" width="11.85546875"/>
+    <col min="5" max="5" width="1"/>
+    <col min="6" max="7" width="11.85546875"/>
+    <col min="8" max="8" width="1"/>
+    <col min="9" max="10" width="11.85546875"/>
+    <col min="11" max="11" width="1"/>
+    <col min="12" max="13" width="11.85546875"/>
+    <col min="14" max="14" width="1"/>
+    <col min="15" max="16" width="11.85546875"/>
+    <col min="17" max="17" width="1"/>
+    <col min="18" max="1025" width="11.85546875"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.95" outlineLevel="0" r="1">
+    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="2">
+    <row r="2" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="4">
+    <row r="4" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -279,7 +534,7 @@
       </c>
       <c r="S4" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="5">
+    <row r="5" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -300,7 +555,7 @@
       <c r="R5" s="4"/>
       <c r="S5" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="6">
+    <row r="6" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -321,26 +576,25 @@
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="7">
+    <row r="7" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="8">
+    <row r="8" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.55" outlineLevel="0" r="9">
+    <row r="9" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
